--- a/Manage User/Defect Report/ManageUser_Module_Defects.xlsx
+++ b/Manage User/Defect Report/ManageUser_Module_Defects.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
-  <si>
-    <t>"EduCulture" Defect Report: "Human Resource” Module</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
+  <si>
+    <t>"EduCulture" Defect Report: "Manage User” Module</t>
   </si>
   <si>
     <t>Defect_ID</t>
@@ -28,9 +28,6 @@
     <t>Project Name</t>
   </si>
   <si>
-    <t>Module Name</t>
-  </si>
-  <si>
     <t>Summary</t>
   </si>
   <si>
@@ -64,13 +61,142 @@
     <t>CC To</t>
   </si>
   <si>
+    <t>Resolved</t>
+  </si>
+  <si>
+    <t>Def_ManageUser_01</t>
+  </si>
+  <si>
+    <t>EduCulture</t>
+  </si>
+  <si>
+    <t>search field unable to search user according to entered input by user</t>
+  </si>
+  <si>
+    <t>when user search for particular user &lt;student ,employee,Admin&gt; by entering valid characters or ID numbers  or invalid alphanumeric input values that  show  all users which are available in record.</t>
+  </si>
+  <si>
+    <t>it should search only those users whose string matches with string entered by user</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
     <t>functional</t>
   </si>
   <si>
+    <t>valid</t>
+  </si>
+  <si>
     <t>Vaibhav Sir / Devesh Sir</t>
   </si>
   <si>
     <t>Rohidas Gaikwad</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Def_ManageUser_02</t>
+  </si>
+  <si>
+    <t>back button on all windows  not working properly.</t>
+  </si>
+  <si>
+    <t>when user move on differenrt windows the back button not working properly . Its unable to redirect user on previous window.</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Def_ManageUser_03</t>
+  </si>
+  <si>
+    <t>admin profile unable to view.</t>
+  </si>
+  <si>
+    <t>when  user click on view profile link to view the profile for selected admin ,it does not show the profile for that selected user.</t>
+  </si>
+  <si>
+    <t>Def_ManageUser_04</t>
+  </si>
+  <si>
+    <t>first name field do not have proper validation.</t>
+  </si>
+  <si>
+    <t>first name field does not show proper validation. User able to enter alphanumeric strings with symbols. This field shown as a mandatory field till user able to create new user with keeping First Name field blank. No character length validation.</t>
+  </si>
+  <si>
+    <t>Field should allow to enter only alphabets with specific character length.</t>
+  </si>
+  <si>
+    <t>Def_ManageUser_05</t>
+  </si>
+  <si>
+    <t>last name field not have proper validation.</t>
+  </si>
+  <si>
+    <t>Last name field accept combinations of  alphanumeric input and symbols</t>
+  </si>
+  <si>
+    <t>Last name field should allow user to enter only Alphabets with specific character length.</t>
+  </si>
+  <si>
+    <t>Def_ManageUser_06</t>
+  </si>
+  <si>
+    <t>Email-Id field accepts invalid Id.</t>
+  </si>
+  <si>
+    <t>email Id field does not have proper  validation. Email id field does not follow “Regular Expressions” validations.</t>
+  </si>
+  <si>
+    <t>Email id field should allow user to enter valid email id with specific character length.</t>
+  </si>
+  <si>
+    <t>Def_ManageUser_07</t>
+  </si>
+  <si>
+    <t>mandatory fields are not marked by * symbol</t>
+  </si>
+  <si>
+    <t>user unable to identify the mandatory fields</t>
+  </si>
+  <si>
+    <t>mandatory fields should marked by * symbol</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>Def_ManageUser_08</t>
+  </si>
+  <si>
+    <t>'View Profile' link unable to view Admin users profile</t>
+  </si>
+  <si>
+    <t>when user click on 'View profile' link on users profile its unable to view profile</t>
+  </si>
+  <si>
+    <t>Def_ManageUser_09</t>
+  </si>
+  <si>
+    <t>Delete confirmation message has grammatical error</t>
+  </si>
+  <si>
+    <t>when user click on 'Delete' link to delete Admin profile, it shows confirmation message which has improper sentence format.</t>
+  </si>
+  <si>
+    <t>Def_ManageUser_10</t>
+  </si>
+  <si>
+    <t>'Change link on edit users window unable work</t>
   </si>
 </sst>
 </file>
@@ -80,7 +206,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -120,6 +246,19 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -127,7 +266,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +283,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCC1DA"/>
         <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -187,7 +332,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -204,11 +349,43 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -224,15 +401,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -265,7 +442,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFEEECE1"/>
+      <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -281,7 +458,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFEEECE1"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -314,27 +491,26 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:R65536"/>
+  <dimension ref="2:61"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5748987854251"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8542510121458"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.7125506072874"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="15.5668016194332"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.4251012145749"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.7125506072874"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.995951417004"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.2834008097166"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="12.5668016194332"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.1417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.7125506072874"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.4251012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="15.5668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.4251012145749"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.7125506072874"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.995951417004"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.2834008097166"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="12.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.5748987854251"/>
   </cols>
   <sheetData>
     <row r="2" s="2" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -357,7 +533,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="4" s="3" customFormat="true" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
@@ -402,451 +578,591 @@
       <c r="N4" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
+      <c r="AMJ4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="B5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="4" t="s">
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="4" t="s">
+      <c r="C6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="C7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="114.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="4" t="s">
+      <c r="C8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="4" t="s">
+      <c r="C9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="K11" s="4" t="s">
+      <c r="C10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="K12" s="4" t="s">
+      <c r="C11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="I11" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" s="8" customFormat="true" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="K13" s="4" t="s">
+      <c r="C12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" s="8" customFormat="true" ht="56.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="K14" s="4" t="s">
+      <c r="C13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="4" t="s">
-        <v>17</v>
+      <c r="C14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="J14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="K15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>17</v>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="J15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="K16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>17</v>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="J16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="7"/>
-      <c r="E24" s="4"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="6"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="8"/>
-      <c r="E25" s="4"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="6"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="8"/>
-      <c r="E26" s="4"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="6"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="8"/>
-      <c r="E27" s="4"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="6"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="4"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="D28" s="6"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="9"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="17"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="4"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
+      <c r="C34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="9"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="17"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E39" s="4"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
+      <c r="D39" s="6"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="11"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="19"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="6"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="14"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="4"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="6"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A61:I61"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -866,7 +1182,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -893,7 +1209,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
